--- a/user_id.xlsx
+++ b/user_id.xlsx
@@ -1,41 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SmallEggWu/Desktop/schoolproject/Server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="560" windowWidth="25600" windowHeight="13980" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>U20030c6242719a210bf6ff2fb4011bf8</t>
+  </si>
+  <si>
+    <t>U813d016b939f81b56dd7cd664e70fbc1</t>
+  </si>
+  <si>
+    <t>Uf4294a430508e2dbbe6762306520e641</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,11 +80,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -128,6 +155,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,48 +425,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>U20030c6242719a210bf6ff2fb4011bf8</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Uadd13321542f4e2ac6c39cfae15f7130</t>
-        </is>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>U813d016b939f81b56dd7cd664e70fbc1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Uf4294a430508e2dbbe6762306520e641</t>
-        </is>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>